--- a/utility/TestCases.xlsx
+++ b/utility/TestCases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FITA_Behave_Proj\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00007DFB-277A-4275-A122-3FD1615039B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA00CD-4608-4925-8A41-A4980A2CA3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01" sheetId="1" r:id="rId1"/>
     <sheet name="TC_02" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="TC_03" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>TestCase</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>User click on LoginPage</t>
-  </si>
-  <si>
     <t>TestDescription</t>
   </si>
   <si>
@@ -189,6 +186,39 @@
   </si>
   <si>
     <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>User click on Accordion option from the Widget Tab</t>
+  </si>
+  <si>
+    <t>User click on Practise form option from the Forms Tab</t>
+  </si>
+  <si>
+    <t>User click on TextBox option from the Elements Tab</t>
+  </si>
+  <si>
+    <t>//*[@class="accordion-item"][contains(normalize-space(.), 'What is Lorem Ipsum?')]</t>
+  </si>
+  <si>
+    <t>User click on ''What is Lorem Ipsum?'</t>
+  </si>
+  <si>
+    <t>//*[@class="accordion-item"][contains(normalize-space(.), 'What is Lorem Ipsum?')]//div//p[text()]</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>User verifies the description</t>
+  </si>
+  <si>
+    <t>//a[text() = ' Accordion']</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +575,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,19 +591,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -587,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -608,19 +638,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -631,19 +661,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -654,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -674,16 +704,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
         <v>9988776655</v>
@@ -697,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5">
         <v>45915</v>
@@ -720,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -743,16 +773,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -764,19 +794,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -787,19 +817,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -810,19 +840,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -833,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -856,16 +886,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -882,13 +912,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE589CD-055B-45D6-ACCC-7E2D19084016}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.08984375" customWidth="1"/>
     <col min="6" max="6" width="60.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="86.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -899,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -919,135 +949,135 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1061,14 +1091,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10529BA-043C-4565-8F99-087106ABCDBF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{3E25D7E7-F9AF-4081-BAE5-7583F4095236}">
+      <formula1>"ElementClick, ClearAndEnter, VerifyText, PrintText, DropdownSelector, Pause"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/utility/TestCases.xlsx
+++ b/utility/TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FITA_Behave_Proj\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA00CD-4608-4925-8A41-A4980A2CA3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB22BBCE-8529-4CAF-A347-10C4620109A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/utility/TestCases.xlsx
+++ b/utility/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FITA_Behave_Proj\utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FITA_Behave_Proj_0\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB22BBCE-8529-4CAF-A347-10C4620109A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A456482-9EE5-4703-B715-8DDEC2B620D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
